--- a/文献查询/文献.xlsx
+++ b/文献查询/文献.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,19 +379,346 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Li metal deposition and stripping in a solid-state battery via Coble creep
-            </t>
+          <t>Redox regulation of PGRL1 at the onset of low light intensity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41586-020-1972-y</t>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14764</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Solid-state lithium metal batteries require accommodation of electrochemically generated mechanical stress inside the lithium: this stress can be1,2 up to 1 gigapascal for an overpotential of 135 millivolts. Maintaining the mechanical and electrochemical stability of the solid structure despite physical contact with moving corrosive lithium metal is a demanding requirement. Using in situ transmission electron microscopy, we investigated the deposition and stripping of metallic lithium or sodium held within a large number of parallel hollow tubules made of a mixed ionic-electronic conductor (MIEC). Here we show that these alkali metals—as single crystals—can grow out of and retract inside the tubules via mainly diffusional Coble creep along the MIEC/metal phase boundary. Unlike solid electrolytes, many MIECs are electrochemically stable in contact with lithium (that is, there is a direct tie-line to metallic lithium on the equilibrium phase diagram), so this Coble creep mechanism can effectively relieve stress, maintain electronic and ionic contacts, eliminate solid-electrolyte interphase debris, and allow the reversible deposition/stripping of lithium across a distance of 10 micrometres for 100 cycles. A centimetre-wide full cell—consisting of approximately 1010 MIEC cylinders/solid electrolyte/LiFePO4—shows a high capacity of about 164 milliampere hours per gram of LiFePO4, and almost no degradation for over 50 cycles, starting with a 1× excess of Li. Modelling shows that the design is insensitive to MIEC material choice with channels about 100 nanometres wide and 10–100 micrometres deep. The behaviour of lithium metal within the MIEC channels suggests that the chemical and mechanical stability issues with the metal–electrolyte interface in solid-state lithium metal batteries can be overcome using this architecture. By containing lithium metal within oriented tubes of a mixed ionic-electronic conductor, a 3D anode for lithium metal batteries is produced that overcomes  chemomechanical stability issues at the electrolyte interface.</t>
+          <t xml:space="preserve">
+PGRL1 regulates photosystem I‐cyclic electron flow which transiently activates nonphotochemical quenching at the onset of light. Here, we show that disulfide‐based mechanism of PGRL1 regulated this process in vivo at the onset of low light levels. We found that PGRL1 regulation depended on active formation of key regulatory disulfide in the dark, and that PGR5 was required for this activity. The disulfide state of PGRL1 was modulated in plants by counteracting reductive and oxidative components and reached balanced state that depended on light level. We propose that the redox regulation of PGRL1 fine‐tunes a timely activation of photosynthesis at the onset of low light.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LCI1, a Chlamydomonas reinhardtii plasma membrane protein, functions in active CO2 uptake under low CO2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In response to high CO2 environmental variability, green algae, such as Chlamydomonas reinhardtii, have evolved multiple physiological states dictated by external CO2 concentration. Genetic and physiological studies demonstrated that at least three CO2 physiological states, a high CO2 (0.5–5% CO2), a low CO2 (0.03–0.4% CO2) and a very low CO2 (&lt;0.02% CO2) state, exist in Chlamydomonas. To acclimate in the low and very low CO2 states, Chlamydomonas induces a sophisticated strategy known as a CO2 concentrating mechanism (CCM) that enables proliferation and survival in these unfavorable CO2 environments. Active uptake of Ci from the environment is a fundamental aspect in the Chlamydomonas CCM and is comprised of CO2 and HCO3– uptake systems that play distinct roles in low and very low CO2 acclimation states. LCI1, a putative plasma membrane Ci transporter, has been linked through conditional overexpression to active Ci uptake. However, both the role of LCI1 in various CO2 acclimation states and the species of Ci, HCO3– or CO2, that LCI1 transports remain obscure. Here we report the impact of an LCI1 loss‐of‐function mutant on growth and photosynthesis in different genetic backgrounds at multiple pHs. These studies show that LCI1 appears to be associated with active CO2 uptake in low CO2, especially above air‐level CO2 and that any LCI1 role in very low CO2 is minimal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arabidopsis thaliana SURFEIT1‐like genes link mitochondrial function to early plant development and hormonal growth responses</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14762</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mutations in SURFEIT1 (SURF1) genes affect cytochrome c oxidase (COX) levels in different prokaryotic and eukaryotic organisms. In this work, we describe that Arabidopsis thaliana has two genes that potentially encode SURF1 proteins, due to a duplication that took place in Brassicaceae. Both genes encode mitochondrial proteins and mutation of AtSURF1a causes embryonic lethality. Mutation of AtSURF1b, instead, causes defects in hypocotyl elongation under growth stimulating conditions such as low light intensity, increased ambient temperature and incubation with glucose. Mutants in AtSURF1b show reduced expression of the auxin reporter DR5:GUS and increased levels of the gibberellin reporter GFP‐RGA, suggesting that auxin and gibberellin homeostasis are affected. In agreement, growth defects caused by AtSURF1b mutation can be overcome by treatment with indole‐3‐acetic acid and gibberellin A3, and also by increasing the expression of the auxin biosynthesis gene YUC8 or the transcription factor PIF4, which shows lower abundance in AtSURF1b deficient plants. Mutants in AtSURF1b display lower COX levels, higher alternative oxidase and superoxide levels, and increased expression of genes that respond to mitochondrial dysfunction. Decreased hypocotyl growth and DR5:GUS expression can be reversed by treatment with reduced glutathione, suggesting that redox changes, probably related to mitochondrial dysfunction, are responsible for the effect of AtSURF1b deficiency on hormone responses. The results indicate that changes in AtSURF1b affect mitochondrial function and reactive oxygen species production, which, in turn, impinges on a growth regulatory circuit that involves auxin, gibberellins and the transcription factor PIF4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>High‐density genetic variation maps reveal the correlation between asymmetric interspecific introgressions and improvement of agronomic traits in Upland and Pima cotton varieties developed in Xinjiang, China</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The two new world tetraploid cottons, Gossypium hirsutum and G. barbadense, are cultivated worldwide and are characterised by high yield and superior fibre quality, respectively. Historical genetic introgression has been reported between them; however, the existence of introgression and its genetic effects on agronomic traits remain unclear with regard to independent breeding of G. hirsutum (Upland) and G. barbadense (Pima) elite cultivars. We collected 159 G. hirsutum and 70 G. barbadense cultivars, along with 30 semi‐wild accessions of G. hirsutum, to perform interspecific introgression tests, intraspecific selection analyses, and genome‐wide association studies (GWAS) with fibre quality and yield component traits in multiple environments. In total, we identified seven interspecific introgression events and 52 selective sweep loci in G. hirsutum, as well as 17 interspecific introgression events and 19 selective sweep loci in G. barbadense. Correlation tests between agronomic traits and introgressions showed that introgression loci were mutually beneficial for the improvement of fibre quality and yield traits in both species. In addition, the phenotypic effects of four interspecific introgression events could be detected by intraspecific GWAS, and Gb_INT13 significantly improves fibre yield in G. barbadense. This study describes the landscape of genetic introgression and selection between the two species, and highlights the genetic effects of introgression among populations, which can be used for future improvement of fibre yield and quality in G. barbadense and G. hirsutum, respectively.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AtMYB92 enhances fatty acid synthesis and suberin deposition in leaves of Nicotiana benthamiana</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14759</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Acyl lipids are important constituents of the plant cell. Depending on the cell type, requirements in acyl lipids vary greatly, implying a tight regulation of fatty acid and lipid metabolism. The discovery of the WRINKLED transcription factors, members of the AP2/EREBP family, has emphasized the importance of transcriptional regulations for adapting the rate of acyl chain production to cell requirements. Here we describe the identification of another activator of the fatty acid biosynthetic pathway, the Arabidopsis MYB92 transcription factor. This MYB, like all the members of the subgroups S10 and S24 of MYB transcription factors, can directly activate the promoter of BCCP2 that encodes a component of the fatty acid biosynthetic pathway. Two adjacent MYB cis‐regulatory elements are essential for the binding and activation of the BCCP2 promoter by MYB92. Overexpression of MYB92 or WRI1 in Nicotiana benthamiana induces the expression of fatty acid biosynthetic genes but results in the accumulation of different types of acyl lipids. In the presence of WRI1, triacylglycerol biosynthetic enzymes coded by constitutively expressed genes efficiently channel the excess fatty acids toward reserve lipid accumulation. In contrast, MYB92 activates both fatty acid and suberin biosynthetic genes; hence the remarkable increase in suberin monomers measured in leaves expressing MYB92. These results provide additional insight into the molecular mechanisms that control the biosynthesis of an important cell wall‐associated acylglycerol polymer playing critical roles in plants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ethyl methanesulfonate (EMS) mutant library construction in G. hirsutum L. for allotetraploid functional genomics and germplasm innovation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As the gene pool is exposed to both strain on land resources and a lack of diversity in elite allotetraploid cotton, the acquisition and identification of novel alleles has taken on epic importance in facilitating cotton genetic improvement and functional genomics research. Ethyl methanesulfonate (EMS) is an excellent mutagen induces genome‐wide efficient mutations to activate the mutagenic potential of plants with many advantages. The present study established, determined and verified the experimental procedure suitable for EMS based mutant library construction as the general reference guide in allotetraploid upland cotton. This optimized method and procedure are efficient, and abundant EMS mutant library (~12, 000) in allotetraploid cotton were successfully obtained. More than 20 mutant phenotypes were observed and screened, including phenotypes of the leaf, flower, fruit, fiber, and plant architecture. Through the plants mutant library, high throughput and high resolution melting (HRM) technology based variation evaluation detected the EMS induced site mutation. Additionally, based on overall genome‐wide mutation analyses by re‐sequencing and mutant library assessment, the examination results demonstrated the ideal quality of the cotton EMS‐treated mutant library constructed in this study with appropriate high mutation density and saturated genome. What’s more, the collection is composed of a broad repertoire of mutants which is the valuable resource for basic genetic research and functional genomics underlying complex allotetraploid traits, as well as cotton breeding.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arabidopsis Raf‐like kinases act as positive regulators of subclass III SnRK2 in osmostress signaling</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Given their sessile nature, land plants must use various mechanisms to manage dehydration under water‐deficit conditions. Osmostress‐induced activation of the SNF1‐related protein kinase 2 (SnRK2) family elicits physiological responses such as stomatal closure to protect plants during drought conditions. With the plant hormone abscisic acid (ABA) receptors (PYR/PYL/RCAR proteins) and Group A protein phosphatases (PP2CAs), subclass III SnRK2 also constitutes a core signaling module for ABA, and osmostress triggers ABA accumulation. How SnRK2 is activated through ABA has been clarified, but how it is activated through osmostress is unclear. Here we show that Arabidopsis Raf‐like kinases (AtARKs) of the B3 clade of the mitogen‐activated kinase kinase kinase (MAPKKK) family are crucial in SnRK2‐mediated osmostress responses. Disruption of AtARKs in Arabidopsis results in increased water loss from detached leaves because of impaired stomatal closure in response to osmostress. Our findings in vitro and in planta have shown that AtARKs interact physically with SRK2E, a core factor for stomatal closure in response to drought. Furthermore, we show that AtARK phosphorylates S171 and S175 in the activation loop of SRK2E in vitro and that Atark mutants have defects in osmostress‐induced subclass III SnRK2 activity. Our findings identify a specific type of B3‐MAPKKKs as upstream kinases of subclass III SnRK2 in Arabidopsis. Taken together with earlier reports that ARK is an upstream kinase of SnRK2 in moss, an existing member of a basal land plant lineage, we propose that ARK/SnRK2 module is evolutionarily conserved across 400 million years of land plant evolution for conferring protection against drought.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Issue Information</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14390</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Editorial – Announcing the winners of the SEB‐Wiley‐TPJ awards for outstanding TPJ papers published in 2019</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14730</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Modern tools promise to boost breeding of vital staple crops</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14737</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FLOURY ENDOSPERM11‐2 encodes plastid HSP70‐2 involved with temperature‐dependent chalkiness of rice (Oryza sativa L.) grains</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14752</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The frequent occurrence of chalky rice (Oryza sativa L.) grains becomes a serious problem due to climate change. However, the molecular mechanism underlying chalkiness is largely unknown. In this study, the temperature‐sensitive floury endosperm11‐2 (flo11‐2) mutant was isolated from ion beam‐irradiated rice of 1,116 lines. The flo11‐2 mutant showed significantly higher chalkiness under mean temperature of 28 °C than the wild type, but similar levels of chalkiness to the wild type under mean temperature of 24 °C. Whole exome sequencing of the flo11‐2 mutant showed three causal gene candidates, including Os12g0244100, which encodes plastid‐localized 70 kDa heat shock protein 2 (cpHSP70‐2). The cpHSP70‐2 of the flo11‐2 mutant has an amino acid substitution on the 259th aspartic acid with valine (D259V) in the conserved Motif 5 of ATPase domain. Transgenic flo11‐2 mutants that express the wild type cpHSP70‐2 showed significantly lower chalkiness than the flo11‐2 mutant. Moreover, the accumulation level of cpHSP70‐2 was negatively correlated with chalky ratio, indicating that the cpHSP70‐2 is a causal gene for the chalkiness of the flo11‐2 mutant. The intrinsic ATPase activity of recombinant cpHSP70‐2 was lower by 23% at Vmax in the flo11‐2 mutant type than in the wild type. The growth of DnaK‐defective Escherichia coli cells complemented with DnaK with D201V mutation (equivalent to the D259V mutation) was severely reduced at 37 °C, but not in the wild type DnaK. The results indicate that the lowered cpHSP70‐2 function is involved with the chalkiness of the flo11‐2 mutant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The exogenous application of AtPGLR, an endo‐polygalacturonase, triggers pollen tube burst and repair</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Plant cell wall remodeling plays a key role in the control of cell elongation and differentiation. In particular, the fine‐tuning of the degree of methylesterification of pectins was previously reported to control developmental processes as diverse as pollen germination, pollen tube elongation, primordia emergence or dark‐grown hypocotyl elongation. How pectin degradation can modulate plant development has however remained elusive. Here, we report the characterization of a polygalacturonase (PG), AtPGLR, which gene is highly expressed at the onset of lateral root emergence in Arabidopsis. Due to gene compensation mechanisms, mutant approaches failed to determine the involvement of AtPGLR in plant growth. To overcome this issue, AtPGLR has been expressed heterologously in the yeast Pichia pastoris and biochemically characterized. We showed that AtPGLR is an endo‐PG that preferentially releases non‐methylesterified oligogalacturonides of short degree of polymerization (&lt;8) at acidic pH. The application of the purified recombinant protein on Amaryllis pollen tubes, an excellent model to study cell wall remodeling at acidic pH, induced abnormal pollen tubes or cytoplasmic leakage in the sub‐apical dome of the pollen tube tip, where non‐methylesterified pectin epitopes are detected. Those leaks could either be repaired by new β‐glucan deposits (mostly callose) in the cell wall or promoted dramatic burst of the pollen tube. Our work presents the full biochemical characterization of an Arabidopsis PG and highlights the importance of pectin integrity in pollen tube elongation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Issue Information</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14389</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Believe your GFP: cytoplasmic RNA granules play a role in plant defence</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14738</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Light‐Regulation of Light Harvesting Antenna Size Substantially Enhances Photosynthetic Efficiency and Biomass Yield in Green Algae</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+One of the major factors limiting biomass productivity in algae is the low thermodynamic efficiency of photosynthesis. The greatest thermodynamic inefficiencies in photosynthesis occur during the conversion of light into chemical energy. At full sunlight the light‐harvesting antenna captures photons at a rate nearly ten times faster than the rate‐limiting step in photosynthetic electron transport. Excess captured energy is dissipated by non‐productive pathways including the production of reactive oxygen species. Substantial improvements in photosynthetic efficiency have been achieved by reducing the optical cross‐section of light‐harvesting antenna by selectively reducing chlorophyll b levels and peripheral light harvesting complex subunits. Smaller light‐harvesting antenna, however, may not exhibit optimal photosynthetic performance in low or fluctuating light environments. We describe a translational control system to dynamically adjust light harvesting antenna sizes for enhanced productivity. By expressing a chlorophyllide a oxygenase (CAO) gene having a 5’ mRNA extension encoding a Nab1 translational repressor binding site in a Cao knockout line it was possible to alter chlorophyll b levels and correspondingly light harvesting antenna sizes as a function of growth light intensity. Nab1 activity is light activated in algae and reduces chlorophyll b production and antenna size in high light. Algae having light‐regulated antenna sizes had substantially higher photosynthetic rates and two‐fold greater biomass productivity than the parental wild‐type strains as well as near wild‐type ability to carry out state transitions and non‐photochemical quenching of the excited state of chlorophyll a. These results have broad implications for enhanced algae and plant bioproduct and biomass productivity.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LRR‐Receptor Like Kinase II phylogenetics reveals five main clades throughout the plant kingdom</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14749</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Receptor like kinases represent the largest group of cell surface receptors in plants, of which monophyletic LRR‐RLK subfamily II is considered to contain the somatic embryogenesis receptor kinases (SERK), NSP interacting kinase (NIK) known to be involved in both developmental processes as well as cellular immunity in plants. In terms of phylogenetics of LRR‐RLKII only a few published studies, unfortunately suffering from poor taxon/gene sampling, exist. Hence, it is not clear how many and what main clades it contains, let alone what structure/function relationships exist. We used 1342 protein sequences annotated as ‘SERK’ and ‘SERK like’ plus related sequences in order to estimate phylogeny within the LRR‐RLKII clade, using a nematode protein kinase Pelle as outgroup. We reconstruct five main clades (LRR‐RLKII 1‐5) in each of which the main pattern of land plant relationships re‐occurrs, confirming previous hypotheses that duplication events happened in this gene subfamily prior to the divergence among land plant lineages. We show that domain structures and intron‐exon boundaries within the 5 clades are well conserved in evolution. Furthermore, phylogenetic patterns based on the separate LRR and kinase part of LRR‐RLKs are incongruent: whereas the LRR supports a LRR‐RLKII 2/3 sister group relation, the kinase supports clade 1/2. We infer that the kinase part includes few ‘radical’ amino acid changes compared with the LRR part. Finally, our results confirm that amino acids involved in each LRR‐RLKII‐receptor complex interaction are located at N‐capping residues, and that the short amino‐acid motifs of this interaction domain are highly conserved throughout evolution within the five LRR‐RLKII clades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rapid identification of an Arabidopsis NLR gene as a candidate conferring susceptibility to Sclerotinia sclerotiorum using time‐resolved automated phenotyping</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14747</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The broad host range necrotrophic fungus Sclerotinia sclerotiorum is a devastating pathogen of many oil and vegetable crops. Plant genes conferring complete resistance against S. sclerotiorum have not been reported. Instead, plant populations challenged by S. sclerotiorum exhibit a continuum of partial resistance designated as quantitative disease resistance (QDR). Because of their complex interplay and their small phenotypic effect, the functional characterization of QDR genes remains limited. How broad host range necrotrophic fungi manipulate plant programmed cell death is for instance largely unknown. Here, we designed a time‐resolved automated disease phenotyping pipeline enabling high‐ throughput disease lesion measurement with high resolution, low footprint at low cost. We could accurately recover contrasted disease responses in several pathosystems using this system. We used our phenotyping pipeline to assess the kinetics of disease symptoms caused by seven S. sclerotiorum isolates on six A. thaliana natural accessions with unprecedented resolution. Large effect polymorphisms common to the most resistant A. thaliana accessions identified highly divergent alleles of the nucleotide‐binding site leucine‐rich repeat gene LAZ5 in the resistant accessions Rubenzhnoe and Lip‐0. We show that impaired LAZ5 expression in laz5.1 mutant lines and in A. thaliana Rub natural accession correlate with enhanced QDR to S. sclerotiorum. These findings illustrate the value of time‐resolved image‐based phenotyping for unravelling the genetic bases of complex traits such as QDR. Our results suggest that S. sclerotiorum manipulates plant sphingolipid pathways guarded by LAZ5 to trigger programmed cell death and cause disease.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OsMFT2 is involved in the regulation of ABA signaling‐mediated seed germination through interacting with OsbZIP23/66/72 in rice</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14748</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Seed germination is a complex process involving various physical and biochemical cues, which is determined by exogenous and endogenous factors. Here, we identified a gene, OsMFT2, which negatively regulates seed germination in rice. OsMFT2 knock‐out lines exhibited pre‐harvest sprouting, while OsMFT2 overexpression lines showed delayed germination. RNA expression profiling showed that OsMFT2 was specifically expressed in seeds. Subcellular localization indicated that OsMFT2 was a nuclear protein. Exogenous abscisic acid (ABA) treatment on imbibed seeds and seedlings indicated that OsMFT2 altered ABA sensitivity during seed germination and post‐germination growth. In vivo and in vitro assays showed that three bZIP transcription factors, OsbZIP23, OsbZIP66 and OsbZIP72, interacted with OsMFT2. OsbZIP23/66/72 bound to the promoter of Rab16A, a typical ABA responsive element containing gene, and OsMFT2 enhanced their binding activities to Rab16A promoter. Moreover, several ABA responsive genes were differentially expressed in the imbibed seeds of OsMFT2 transgenic lines and wild‐type. Performance of transgenic plants demonstrated that overexpressing OsbZIP23 rescued the pre‐harvest sprouting phenotype and expression decrease of ABA signaling genes caused by OsMFT2 knocking‐out. All these results demonstrated that OsMFT2 positively regulates ABA response genes through interacting with OsbZIP23/66/72 and functions in seed germination.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chitosan‐triggered immunity to Fusarium in chickpea is associated with changes in the plant extracellular matrix architecture, stomatal closure and remodelling of the plant metabolome and proteome</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Pathogen/microbe associated molecular patterns (PAMPs/MAMPs) initiate complex defense responses by reorganizing the biomolecular dynamics of the host cellular machinery. The extracellular matrix (ECM) acts as a physical scaffold that prevents recognition and entry of phyto‐pathogens, while guard cells perceive and integrate signals metabolically. Although chitosan is known MAMP implicated in plant defense, the precise mechanism of chitosan‐triggered immunity (CTI) remains unknown. Here, we show how chitosan imparts immunity against fungal disease. Morpho‐histological examination revealed stomatal closure accompanied by reductions in stomatal conductance and transpiration rate as early responses in chitosan‐treated seedlings upon vascular fusariosis. Electron microscopy and Raman spectroscopy showed ECM fortification leading to oligosaccharide signaling, as documented by increased galactose, pectin and associated secondary metabolites. Multiomics approach using quantitative ECM proteomics and metabolomics identified 325 chitosan‐triggered immune‐responsive proteins (CTIRPs) notably novel ECM structural proteins, LYM2 and receptor‐like kinases, and 65 chitosan‐triggered immune‐responsive metabolites (CTIRMs), including sugars, sugar alcohols, fatty alcohols, organic and amino acids. Identified proteins and metabolites are linked to ROS production, stomatal movement, root nodule development and root architecture coupled with oligosaccharide signaling that leads to Fusarium resistance. The cumulative data demonstrate that ROS, NO and eATP govern CTI, in addition to induction of PR proteins, CAZymes and PAL activities, besides accumulation of phenolic compounds downstream of CTI. The immune‐related correlation network identified functional hubs in the CTI pathway. Altogether, these shifts led to the discovery of chitosan‐responsive networks that cause significant ECM and guard cell remodeling and translate ECM cues into cell fate decisions during fusariosis.
+Supporting Information
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The rice/maize‐pathogen Cochliobolus spp. infect and reproduce on Arabidopsis revealing differences in defensive phytohormone function between monocots and dicots</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14743</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The fungal genus Cochliobolus describes necrotrophic pathogens that give rise to significant losses on rice, wheat, and maize. Revealing plant mechanisms of non‐host resistance (NHR) against Cochliobolus will help to uncover strategies that can be exploited in engineered cereals. Therefore, we developed a heterogeneous pathosystem and studied the ability of Cochliobolus to infect dicotyledons. We report here that C. miyabeanus and C. heterostrophus infect Arabidopsis accessions and produce functional conidia, thereby demonstrating the ability to accept brassica species as host‐plants. Some ecotypes exhibited a high susceptibility, whereas others hindered the necrotrophic disease progression of the Cochliobolus strains. Natural variation in NHR among the tested Arabidopsis accessions can advance the identification of genetic loci that prime the plant’s defense repertoire. We found that applied phytotoxin‐containing conidial‐fluid‐extracts of C. miyabeanus caused necrotic lesions on rice leaves but provoked only minor irritations on Arabidopsis. This result implies that C. miyabeanus‐phytotoxins are insufficiently adapted to promote dicot‐colonization, which corresponds with a retarded infection progression. Previous studies on rice demonstrated that ethylene (ET) promotes C. miyabeanus infection, whereas salicylic acid (SA) and jasmonic acid (JA) exert a minor function. However, in Arabidopsis, we revealed that the genetic disruption of the ET and JA‐signaling‐pathway compromises basal resistance against Cochliobolus, whereas SA‐biosynthesis mutants showed a reduced susceptibility. Our results refer to the synergistic action of ET/JA and indicate distinct defense‐systems between Arabidopsis and rice to confine Cochliobolus propagation. Moreover, this heterogeneous pathosystem may help to reveal mechanisms of NHR and associated defensive genes against Cochliobolus infection.
+</t>
         </is>
       </c>
     </row>
@@ -406,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +759,234 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LCI1, a Chlamydomonas reinhardtii plasma membrane protein, functions in active CO2 uptake under low CO2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In response to high CO2 environmental variability, green algae, such as Chlamydomonas reinhardtii, have evolved multiple physiological states dictated by external CO2 concentration. Genetic and physiological studies demonstrated that at least three CO2 physiological states, a high CO2 (0.5–5% CO2), a low CO2 (0.03–0.4% CO2) and a very low CO2 (&lt;0.02% CO2) state, exist in Chlamydomonas. To acclimate in the low and very low CO2 states, Chlamydomonas induces a sophisticated strategy known as a CO2 concentrating mechanism (CCM) that enables proliferation and survival in these unfavorable CO2 environments. Active uptake of Ci from the environment is a fundamental aspect in the Chlamydomonas CCM and is comprised of CO2 and HCO3– uptake systems that play distinct roles in low and very low CO2 acclimation states. LCI1, a putative plasma membrane Ci transporter, has been linked through conditional overexpression to active Ci uptake. However, both the role of LCI1 in various CO2 acclimation states and the species of Ci, HCO3– or CO2, that LCI1 transports remain obscure. Here we report the impact of an LCI1 loss‐of‐function mutant on growth and photosynthesis in different genetic backgrounds at multiple pHs. These studies show that LCI1 appears to be associated with active CO2 uptake in low CO2, especially above air‐level CO2 and that any LCI1 role in very low CO2 is minimal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arabidopsis thaliana SURFEIT1‐like genes link mitochondrial function to early plant development and hormonal growth responses</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14762</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mutations in SURFEIT1 (SURF1) genes affect cytochrome c oxidase (COX) levels in different prokaryotic and eukaryotic organisms. In this work, we describe that Arabidopsis thaliana has two genes that potentially encode SURF1 proteins, due to a duplication that took place in Brassicaceae. Both genes encode mitochondrial proteins and mutation of AtSURF1a causes embryonic lethality. Mutation of AtSURF1b, instead, causes defects in hypocotyl elongation under growth stimulating conditions such as low light intensity, increased ambient temperature and incubation with glucose. Mutants in AtSURF1b show reduced expression of the auxin reporter DR5:GUS and increased levels of the gibberellin reporter GFP‐RGA, suggesting that auxin and gibberellin homeostasis are affected. In agreement, growth defects caused by AtSURF1b mutation can be overcome by treatment with indole‐3‐acetic acid and gibberellin A3, and also by increasing the expression of the auxin biosynthesis gene YUC8 or the transcription factor PIF4, which shows lower abundance in AtSURF1b deficient plants. Mutants in AtSURF1b display lower COX levels, higher alternative oxidase and superoxide levels, and increased expression of genes that respond to mitochondrial dysfunction. Decreased hypocotyl growth and DR5:GUS expression can be reversed by treatment with reduced glutathione, suggesting that redox changes, probably related to mitochondrial dysfunction, are responsible for the effect of AtSURF1b deficiency on hormone responses. The results indicate that changes in AtSURF1b affect mitochondrial function and reactive oxygen species production, which, in turn, impinges on a growth regulatory circuit that involves auxin, gibberellins and the transcription factor PIF4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>High‐density genetic variation maps reveal the correlation between asymmetric interspecific introgressions and improvement of agronomic traits in Upland and Pima cotton varieties developed in Xinjiang, China</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The two new world tetraploid cottons, Gossypium hirsutum and G. barbadense, are cultivated worldwide and are characterised by high yield and superior fibre quality, respectively. Historical genetic introgression has been reported between them; however, the existence of introgression and its genetic effects on agronomic traits remain unclear with regard to independent breeding of G. hirsutum (Upland) and G. barbadense (Pima) elite cultivars. We collected 159 G. hirsutum and 70 G. barbadense cultivars, along with 30 semi‐wild accessions of G. hirsutum, to perform interspecific introgression tests, intraspecific selection analyses, and genome‐wide association studies (GWAS) with fibre quality and yield component traits in multiple environments. In total, we identified seven interspecific introgression events and 52 selective sweep loci in G. hirsutum, as well as 17 interspecific introgression events and 19 selective sweep loci in G. barbadense. Correlation tests between agronomic traits and introgressions showed that introgression loci were mutually beneficial for the improvement of fibre quality and yield traits in both species. In addition, the phenotypic effects of four interspecific introgression events could be detected by intraspecific GWAS, and Gb_INT13 significantly improves fibre yield in G. barbadense. This study describes the landscape of genetic introgression and selection between the two species, and highlights the genetic effects of introgression among populations, which can be used for future improvement of fibre yield and quality in G. barbadense and G. hirsutum, respectively.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AtMYB92 enhances fatty acid synthesis and suberin deposition in leaves of Nicotiana benthamiana</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Acyl lipids are important constituents of the plant cell. Depending on the cell type, requirements in acyl lipids vary greatly, implying a tight regulation of fatty acid and lipid metabolism. The discovery of the WRINKLED transcription factors, members of the AP2/EREBP family, has emphasized the importance of transcriptional regulations for adapting the rate of acyl chain production to cell requirements. Here we describe the identification of another activator of the fatty acid biosynthetic pathway, the Arabidopsis MYB92 transcription factor. This MYB, like all the members of the subgroups S10 and S24 of MYB transcription factors, can directly activate the promoter of BCCP2 that encodes a component of the fatty acid biosynthetic pathway. Two adjacent MYB cis‐regulatory elements are essential for the binding and activation of the BCCP2 promoter by MYB92. Overexpression of MYB92 or WRI1 in Nicotiana benthamiana induces the expression of fatty acid biosynthetic genes but results in the accumulation of different types of acyl lipids. In the presence of WRI1, triacylglycerol biosynthetic enzymes coded by constitutively expressed genes efficiently channel the excess fatty acids toward reserve lipid accumulation. In contrast, MYB92 activates both fatty acid and suberin biosynthetic genes; hence the remarkable increase in suberin monomers measured in leaves expressing MYB92. These results provide additional insight into the molecular mechanisms that control the biosynthesis of an important cell wall‐associated acylglycerol polymer playing critical roles in plants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethyl methanesulfonate (EMS) mutant library construction in G. hirsutum L. for allotetraploid functional genomics and germplasm innovation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As the gene pool is exposed to both strain on land resources and a lack of diversity in elite allotetraploid cotton, the acquisition and identification of novel alleles has taken on epic importance in facilitating cotton genetic improvement and functional genomics research. Ethyl methanesulfonate (EMS) is an excellent mutagen induces genome‐wide efficient mutations to activate the mutagenic potential of plants with many advantages. The present study established, determined and verified the experimental procedure suitable for EMS based mutant library construction as the general reference guide in allotetraploid upland cotton. This optimized method and procedure are efficient, and abundant EMS mutant library (~12, 000) in allotetraploid cotton were successfully obtained. More than 20 mutant phenotypes were observed and screened, including phenotypes of the leaf, flower, fruit, fiber, and plant architecture. Through the plants mutant library, high throughput and high resolution melting (HRM) technology based variation evaluation detected the EMS induced site mutation. Additionally, based on overall genome‐wide mutation analyses by re‐sequencing and mutant library assessment, the examination results demonstrated the ideal quality of the cotton EMS‐treated mutant library constructed in this study with appropriate high mutation density and saturated genome. What’s more, the collection is composed of a broad repertoire of mutants which is the valuable resource for basic genetic research and functional genomics underlying complex allotetraploid traits, as well as cotton breeding.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FLOURY ENDOSPERM11‐2 encodes plastid HSP70‐2 involved with temperature‐dependent chalkiness of rice (Oryza sativa L.) grains</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The frequent occurrence of chalky rice (Oryza sativa L.) grains becomes a serious problem due to climate change. However, the molecular mechanism underlying chalkiness is largely unknown. In this study, the temperature‐sensitive floury endosperm11‐2 (flo11‐2) mutant was isolated from ion beam‐irradiated rice of 1,116 lines. The flo11‐2 mutant showed significantly higher chalkiness under mean temperature of 28 °C than the wild type, but similar levels of chalkiness to the wild type under mean temperature of 24 °C. Whole exome sequencing of the flo11‐2 mutant showed three causal gene candidates, including Os12g0244100, which encodes plastid‐localized 70 kDa heat shock protein 2 (cpHSP70‐2). The cpHSP70‐2 of the flo11‐2 mutant has an amino acid substitution on the 259th aspartic acid with valine (D259V) in the conserved Motif 5 of ATPase domain. Transgenic flo11‐2 mutants that express the wild type cpHSP70‐2 showed significantly lower chalkiness than the flo11‐2 mutant. Moreover, the accumulation level of cpHSP70‐2 was negatively correlated with chalky ratio, indicating that the cpHSP70‐2 is a causal gene for the chalkiness of the flo11‐2 mutant. The intrinsic ATPase activity of recombinant cpHSP70‐2 was lower by 23% at Vmax in the flo11‐2 mutant type than in the wild type. The growth of DnaK‐defective Escherichia coli cells complemented with DnaK with D201V mutation (equivalent to the D259V mutation) was severely reduced at 37 °C, but not in the wild type DnaK. The results indicate that the lowered cpHSP70‐2 function is involved with the chalkiness of the flo11‐2 mutant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The exogenous application of AtPGLR, an endo‐polygalacturonase, triggers pollen tube burst and repair</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Plant cell wall remodeling plays a key role in the control of cell elongation and differentiation. In particular, the fine‐tuning of the degree of methylesterification of pectins was previously reported to control developmental processes as diverse as pollen germination, pollen tube elongation, primordia emergence or dark‐grown hypocotyl elongation. How pectin degradation can modulate plant development has however remained elusive. Here, we report the characterization of a polygalacturonase (PG), AtPGLR, which gene is highly expressed at the onset of lateral root emergence in Arabidopsis. Due to gene compensation mechanisms, mutant approaches failed to determine the involvement of AtPGLR in plant growth. To overcome this issue, AtPGLR has been expressed heterologously in the yeast Pichia pastoris and biochemically characterized. We showed that AtPGLR is an endo‐PG that preferentially releases non‐methylesterified oligogalacturonides of short degree of polymerization (&lt;8) at acidic pH. The application of the purified recombinant protein on Amaryllis pollen tubes, an excellent model to study cell wall remodeling at acidic pH, induced abnormal pollen tubes or cytoplasmic leakage in the sub‐apical dome of the pollen tube tip, where non‐methylesterified pectin epitopes are detected. Those leaks could either be repaired by new β‐glucan deposits (mostly callose) in the cell wall or promoted dramatic burst of the pollen tube. Our work presents the full biochemical characterization of an Arabidopsis PG and highlights the importance of pectin integrity in pollen tube elongation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Light‐Regulation of Light Harvesting Antenna Size Substantially Enhances Photosynthetic Efficiency and Biomass Yield in Green Algae</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+One of the major factors limiting biomass productivity in algae is the low thermodynamic efficiency of photosynthesis. The greatest thermodynamic inefficiencies in photosynthesis occur during the conversion of light into chemical energy. At full sunlight the light‐harvesting antenna captures photons at a rate nearly ten times faster than the rate‐limiting step in photosynthetic electron transport. Excess captured energy is dissipated by non‐productive pathways including the production of reactive oxygen species. Substantial improvements in photosynthetic efficiency have been achieved by reducing the optical cross‐section of light‐harvesting antenna by selectively reducing chlorophyll b levels and peripheral light harvesting complex subunits. Smaller light‐harvesting antenna, however, may not exhibit optimal photosynthetic performance in low or fluctuating light environments. We describe a translational control system to dynamically adjust light harvesting antenna sizes for enhanced productivity. By expressing a chlorophyllide a oxygenase (CAO) gene having a 5’ mRNA extension encoding a Nab1 translational repressor binding site in a Cao knockout line it was possible to alter chlorophyll b levels and correspondingly light harvesting antenna sizes as a function of growth light intensity. Nab1 activity is light activated in algae and reduces chlorophyll b production and antenna size in high light. Algae having light‐regulated antenna sizes had substantially higher photosynthetic rates and two‐fold greater biomass productivity than the parental wild‐type strains as well as near wild‐type ability to carry out state transitions and non‐photochemical quenching of the excited state of chlorophyll a. These results have broad implications for enhanced algae and plant bioproduct and biomass productivity.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LRR‐Receptor Like Kinase II phylogenetics reveals five main clades throughout the plant kingdom</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Receptor like kinases represent the largest group of cell surface receptors in plants, of which monophyletic LRR‐RLK subfamily II is considered to contain the somatic embryogenesis receptor kinases (SERK), NSP interacting kinase (NIK) known to be involved in both developmental processes as well as cellular immunity in plants. In terms of phylogenetics of LRR‐RLKII only a few published studies, unfortunately suffering from poor taxon/gene sampling, exist. Hence, it is not clear how many and what main clades it contains, let alone what structure/function relationships exist. We used 1342 protein sequences annotated as ‘SERK’ and ‘SERK like’ plus related sequences in order to estimate phylogeny within the LRR‐RLKII clade, using a nematode protein kinase Pelle as outgroup. We reconstruct five main clades (LRR‐RLKII 1‐5) in each of which the main pattern of land plant relationships re‐occurrs, confirming previous hypotheses that duplication events happened in this gene subfamily prior to the divergence among land plant lineages. We show that domain structures and intron‐exon boundaries within the 5 clades are well conserved in evolution. Furthermore, phylogenetic patterns based on the separate LRR and kinase part of LRR‐RLKs are incongruent: whereas the LRR supports a LRR‐RLKII 2/3 sister group relation, the kinase supports clade 1/2. We infer that the kinase part includes few ‘radical’ amino acid changes compared with the LRR part. Finally, our results confirm that amino acids involved in each LRR‐RLKII‐receptor complex interaction are located at N‐capping residues, and that the short amino‐acid motifs of this interaction domain are highly conserved throughout evolution within the five LRR‐RLKII clades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rapid identification of an Arabidopsis NLR gene as a candidate conferring susceptibility to Sclerotinia sclerotiorum using time‐resolved automated phenotyping</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14747</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The broad host range necrotrophic fungus Sclerotinia sclerotiorum is a devastating pathogen of many oil and vegetable crops. Plant genes conferring complete resistance against S. sclerotiorum have not been reported. Instead, plant populations challenged by S. sclerotiorum exhibit a continuum of partial resistance designated as quantitative disease resistance (QDR). Because of their complex interplay and their small phenotypic effect, the functional characterization of QDR genes remains limited. How broad host range necrotrophic fungi manipulate plant programmed cell death is for instance largely unknown. Here, we designed a time‐resolved automated disease phenotyping pipeline enabling high‐ throughput disease lesion measurement with high resolution, low footprint at low cost. We could accurately recover contrasted disease responses in several pathosystems using this system. We used our phenotyping pipeline to assess the kinetics of disease symptoms caused by seven S. sclerotiorum isolates on six A. thaliana natural accessions with unprecedented resolution. Large effect polymorphisms common to the most resistant A. thaliana accessions identified highly divergent alleles of the nucleotide‐binding site leucine‐rich repeat gene LAZ5 in the resistant accessions Rubenzhnoe and Lip‐0. We show that impaired LAZ5 expression in laz5.1 mutant lines and in A. thaliana Rub natural accession correlate with enhanced QDR to S. sclerotiorum. These findings illustrate the value of time‐resolved image‐based phenotyping for unravelling the genetic bases of complex traits such as QDR. Our results suggest that S. sclerotiorum manipulates plant sphingolipid pathways guarded by LAZ5 to trigger programmed cell death and cause disease.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OsMFT2 is involved in the regulation of ABA signaling‐mediated seed germination through interacting with OsbZIP23/66/72 in rice</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Seed germination is a complex process involving various physical and biochemical cues, which is determined by exogenous and endogenous factors. Here, we identified a gene, OsMFT2, which negatively regulates seed germination in rice. OsMFT2 knock‐out lines exhibited pre‐harvest sprouting, while OsMFT2 overexpression lines showed delayed germination. RNA expression profiling showed that OsMFT2 was specifically expressed in seeds. Subcellular localization indicated that OsMFT2 was a nuclear protein. Exogenous abscisic acid (ABA) treatment on imbibed seeds and seedlings indicated that OsMFT2 altered ABA sensitivity during seed germination and post‐germination growth. In vivo and in vitro assays showed that three bZIP transcription factors, OsbZIP23, OsbZIP66 and OsbZIP72, interacted with OsMFT2. OsbZIP23/66/72 bound to the promoter of Rab16A, a typical ABA responsive element containing gene, and OsMFT2 enhanced their binding activities to Rab16A promoter. Moreover, several ABA responsive genes were differentially expressed in the imbibed seeds of OsMFT2 transgenic lines and wild‐type. Performance of transgenic plants demonstrated that overexpressing OsbZIP23 rescued the pre‐harvest sprouting phenotype and expression decrease of ABA signaling genes caused by OsMFT2 knocking‐out. All these results demonstrated that OsMFT2 positively regulates ABA response genes through interacting with OsbZIP23/66/72 and functions in seed germination.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The rice/maize‐pathogen Cochliobolus spp. infect and reproduce on Arabidopsis revealing differences in defensive phytohormone function between monocots and dicots</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/10.1111/tpj.14743</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The fungal genus Cochliobolus describes necrotrophic pathogens that give rise to significant losses on rice, wheat, and maize. Revealing plant mechanisms of non‐host resistance (NHR) against Cochliobolus will help to uncover strategies that can be exploited in engineered cereals. Therefore, we developed a heterogeneous pathosystem and studied the ability of Cochliobolus to infect dicotyledons. We report here that C. miyabeanus and C. heterostrophus infect Arabidopsis accessions and produce functional conidia, thereby demonstrating the ability to accept brassica species as host‐plants. Some ecotypes exhibited a high susceptibility, whereas others hindered the necrotrophic disease progression of the Cochliobolus strains. Natural variation in NHR among the tested Arabidopsis accessions can advance the identification of genetic loci that prime the plant’s defense repertoire. We found that applied phytotoxin‐containing conidial‐fluid‐extracts of C. miyabeanus caused necrotic lesions on rice leaves but provoked only minor irritations on Arabidopsis. This result implies that C. miyabeanus‐phytotoxins are insufficiently adapted to promote dicot‐colonization, which corresponds with a retarded infection progression. Previous studies on rice demonstrated that ethylene (ET) promotes C. miyabeanus infection, whereas salicylic acid (SA) and jasmonic acid (JA) exert a minor function. However, in Arabidopsis, we revealed that the genetic disruption of the ET and JA‐signaling‐pathway compromises basal resistance against Cochliobolus, whereas SA‐biosynthesis mutants showed a reduced susceptibility. Our results refer to the synergistic action of ET/JA and indicate distinct defense‐systems between Arabidopsis and rice to confine Cochliobolus propagation. Moreover, this heterogeneous pathosystem may help to reveal mechanisms of NHR and associated defensive genes against Cochliobolus infection.
+</t>
         </is>
       </c>
     </row>
